--- a/src/test/resources/excel/excel.xlsx
+++ b/src/test/resources/excel/excel.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUNMANAGER" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TESTDATA" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="RUNMANAGER" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TESTDATA" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t xml:space="preserve">testname</t>
   </si>
@@ -44,33 +44,36 @@
     <t xml:space="preserve">to check whether the user can successfully login and logout</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to check whether this test is successfully executed or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazontest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to check whether the amazon test is working fine or not</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">newtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to check whether this test is successfully executed or not </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amazontest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to check whether the amazon test is working fine or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">browser</t>
   </si>
   <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
     <t xml:space="preserve">username</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
+    <t xml:space="preserve">83.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admin</t>
   </si>
   <si>
@@ -95,15 +101,21 @@
     <t xml:space="preserve">sachin</t>
   </si>
   <si>
+    <t xml:space="preserve">dhoni</t>
+  </si>
+  <si>
     <t xml:space="preserve">firefox</t>
   </si>
   <si>
-    <t xml:space="preserve">dhoni</t>
+    <t xml:space="preserve">122.0</t>
   </si>
   <si>
     <t xml:space="preserve">yuvi</t>
   </si>
   <si>
+    <t xml:space="preserve">77.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">admin123</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">amazonTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.0</t>
   </si>
   <si>
     <t xml:space="preserve">Laptops</t>
@@ -123,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,27 +159,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFEBEBEB"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Courier New"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,18 +224,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,67 +233,113 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEBEBEB"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF17C6A3"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -322,7 +350,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +400,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -415,15 +443,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E6"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,134 +469,154 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
